--- a/SLAM_fit_para.xlsx
+++ b/SLAM_fit_para.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mihir_new\ASIAA-SSP\SLAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L1489_IRS_ssp\SLAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177BA24D-ED38-47CC-9FEB-F1EFD5EC32B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567D170-6625-439C-A4C2-DBD537D109EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13944" yWindow="1092" windowWidth="9936" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6720" windowWidth="28800" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Model name</t>
   </si>
@@ -45,20 +45,86 @@
     <t>Pin</t>
   </si>
   <si>
-    <t>0.01as</t>
-  </si>
-  <si>
-    <t>193.73(1.06)</t>
+    <t>Test_PV_l1489irs_fit_pix_xcut_54</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_xcut_69</t>
+  </si>
+  <si>
+    <t>Model_fit_xcut_pix_001as</t>
+  </si>
+  <si>
+    <t>Model_fit_xcut_pix_002as</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_54_pfreep_b6</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_54_pfreep_b7</t>
+  </si>
+  <si>
+    <t>Model_fit_pix_001as_vcut_pfree (vcut=3pix)</t>
+  </si>
+  <si>
+    <t>Model_fit_pix_002as_vcut_pfree (vcut = 3pix)</t>
+  </si>
+  <si>
+    <t>Model_fit_vcut_pix_002as (vcut = 3pix)</t>
+  </si>
+  <si>
+    <t>Model_fit_vcut_pix_001as (vcut = 3pix)</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_69_pfree_b6</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_69_pfree_b7</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_69_b7</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_69_b6</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_54_b6</t>
+  </si>
+  <si>
+    <t>Test_PV_l1489irs_fit_pix_vcut_54_b7</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Model_ipr_uniform_001as_inc_0deg</t>
+  </si>
+  <si>
+    <t>Model_ipr_uniform_001as_inc_1deg</t>
+  </si>
+  <si>
+    <t>Model_ipr_uniform_001as_inc_73deg</t>
+  </si>
+  <si>
+    <t>Model_ipr_-2_001as_inc_73deg</t>
+  </si>
+  <si>
+    <t>Model_ipr_-1_001as_inc_73deg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,52 +432,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F5"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="D5">
+        <v>178.73</v>
+      </c>
+      <c r="E5">
+        <v>7.359</v>
+      </c>
+      <c r="F5">
+        <v>2.931</v>
+      </c>
+      <c r="G5">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="D6">
+        <v>192.69</v>
+      </c>
+      <c r="E6">
+        <v>7.367</v>
+      </c>
+      <c r="F6">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="D7">
+        <v>219.35</v>
+      </c>
+      <c r="E7">
+        <v>7.3579999999999997</v>
+      </c>
+      <c r="F7">
+        <v>3.4670000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="D9">
+        <v>189.34</v>
+      </c>
+      <c r="E9">
+        <v>7.3559999999999999</v>
+      </c>
+      <c r="F9">
+        <v>3.056</v>
+      </c>
+      <c r="G9">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="D10">
+        <v>203.35</v>
+      </c>
+      <c r="E10">
+        <v>7.3540000000000001</v>
+      </c>
+      <c r="F10">
+        <v>3.34</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="D11">
+        <v>219.04</v>
+      </c>
+      <c r="E11">
+        <v>7.36</v>
+      </c>
+      <c r="F11">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>2.339</v>
+      </c>
+      <c r="D14">
+        <v>195.11</v>
+      </c>
+      <c r="E14">
+        <v>7.359</v>
+      </c>
+      <c r="F14">
+        <v>3.1389999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="D15">
+        <v>196.61</v>
+      </c>
+      <c r="E15">
+        <v>7.3559999999999999</v>
+      </c>
+      <c r="F15">
+        <v>3.1389999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="D16">
+        <v>207.85</v>
+      </c>
+      <c r="E16">
+        <v>7.3620000000000001</v>
+      </c>
+      <c r="F16">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D24">
+        <v>223.75</v>
+      </c>
+      <c r="E24">
+        <v>7.2320000000000002</v>
+      </c>
+      <c r="F24">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="D25">
+        <v>184.38</v>
+      </c>
+      <c r="E25">
+        <v>7.2649999999999997</v>
+      </c>
+      <c r="F25">
+        <v>2.827</v>
+      </c>
+      <c r="G25">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D27">
+        <v>230.75</v>
+      </c>
+      <c r="E27">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="F27">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="D28">
+        <v>204.26</v>
+      </c>
+      <c r="E28">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="F28">
+        <v>3.161</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2.2789999999999999</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C30">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D30">
+        <v>230.75</v>
+      </c>
+      <c r="E30">
+        <v>7.1950000000000003</v>
+      </c>
+      <c r="F30">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="D34">
+        <v>161.27000000000001</v>
+      </c>
+      <c r="E34">
+        <v>7.3860000000000001</v>
+      </c>
+      <c r="F34">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="G34">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D35">
+        <v>166.3</v>
+      </c>
+      <c r="E35">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="F35">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="G35">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="D37">
+        <v>159.32</v>
+      </c>
+      <c r="E37">
+        <v>7.3840000000000003</v>
+      </c>
+      <c r="F37">
+        <v>2.766</v>
+      </c>
+      <c r="G37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D38">
+        <v>172.92</v>
+      </c>
+      <c r="E38">
+        <v>7.2809999999999997</v>
+      </c>
+      <c r="F38">
+        <v>2.919</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>7.3550000000000004</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
+      <c r="C40">
+        <v>2.37</v>
+      </c>
+      <c r="D40">
+        <v>126.94</v>
+      </c>
+      <c r="E40">
+        <v>7.2679999999999998</v>
+      </c>
+      <c r="F40">
+        <v>2.67</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
